--- a/src/main/resources/cost.xlsx
+++ b/src/main/resources/cost.xlsx
@@ -3,25 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -61,7 +57,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗金币</t>
+    <t>消耗金币（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余金币（个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,9 +446,11 @@
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="5" max="5" width="39.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,6 +468,9 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
